--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/应交所得税.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/应交所得税.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,385 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5.97134</v>
-      </c>
-      <c r="C2" t="n">
-        <v>25.21952</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.59046</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.000000000000001e-05</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.29062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>22.91007</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.13222</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13.87015</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.46883</v>
-      </c>
-      <c r="K2" t="n">
-        <v>457.65279</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.83558</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.09296</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.5463</v>
-      </c>
-      <c r="O2" t="n">
-        <v>7.55003</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9.61314</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.84915</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.75887</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.55937</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.83105</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.08134</v>
-      </c>
-      <c r="V2" t="n">
-        <v>35.90553</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.85248</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.41644</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>72.22638000000001</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>22.09048</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>7.6069</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.09518</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.97993</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>84.82083</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>10.23134</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>3.41638</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>4.56982</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2.8121</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>7.26864</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.8988</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>4.03475</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>4.27679</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>20.08159</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>48.29407</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.23107</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6.75192</v>
-      </c>
-      <c r="C3" t="n">
-        <v>35.26822</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.44621</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.36126</v>
-      </c>
-      <c r="G3" t="n">
-        <v>24.21355</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.14806</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16.65124</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.06582</v>
-      </c>
-      <c r="K3" t="n">
-        <v>502.09637</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.32305</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.20787</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.58901</v>
-      </c>
-      <c r="O3" t="n">
-        <v>9.09563</v>
-      </c>
-      <c r="P3" t="n">
-        <v>10.38955</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.5205</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.62583</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.65085</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.54422</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.25369</v>
-      </c>
-      <c r="V3" t="n">
-        <v>52.04924</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.04972</v>
-      </c>
-      <c r="X3" t="n">
-        <v>18.37054</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>72.07536</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>18.36747</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>8.0646</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.42386</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.27125</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>87.18463</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>8.36605</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4.0665</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>6.69524</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>3.01046</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>8.848089999999999</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.99396</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>3.72099</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>5.3825</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>15.99201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>53.21602</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.44349</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7.97758</v>
-      </c>
-      <c r="C4" t="n">
-        <v>48.59055</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.3292</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00016</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.36412</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22.2243</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.64731</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16.34581</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.12967</v>
-      </c>
-      <c r="K4" t="n">
-        <v>567.6028700000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.74759</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.17325</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.61016</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11.83875</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8.29143</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.84503</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.39672</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.58578</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.77081</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.51073</v>
-      </c>
-      <c r="V4" t="n">
-        <v>62.40416</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.58324</v>
-      </c>
-      <c r="X4" t="n">
-        <v>27.96864</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>71.95711</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15.42582</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>6.69503</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.1126</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>16.75303</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>92.84744000000001</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>8.473330000000001</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2.56986</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7.63329</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2.26574</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8.694610000000001</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.22972</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>4.84351</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>5.64733</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>19.06499</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>72.26634</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.431</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
